--- a/tables/TableS1_biotoxin_mgmt_summary.xlsx
+++ b/tables/TableS1_biotoxin_mgmt_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/domoic_acid_mgmt/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB746F23-7993-CD4A-AEC9-9FF806F451C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1392AC5C-8B00-BB43-8CAE-D10CD44DE07E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{351012C4-CC5F-584D-814C-F653E2251634}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15540" xr2:uid="{351012C4-CC5F-584D-814C-F653E2251634}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t># of sampling sites</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Action threshold (ppm)</t>
-  </si>
-  <si>
-    <t>Area closures</t>
   </si>
   <si>
     <t>12 sites
@@ -487,13 +484,13 @@
   <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
   </cols>
@@ -517,13 +514,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -531,13 +528,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -545,13 +542,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -559,13 +556,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -573,27 +570,27 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
